--- a/Logiciel/Vent.xlsx
+++ b/Logiciel/Vent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/847b627be5f97550/Arthur/Programmation/TIPE_Arthur_Lhoste/Logiciel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{6AB1F8BF-0BCE-45DB-A9FF-250C9FC49FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11DA0009-BC98-44FE-9FEE-589AAF4320B7}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{6AB1F8BF-0BCE-45DB-A9FF-250C9FC49FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43A10BE-2A3F-41D1-9E38-57234B0FD689}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A973CA7D-4A48-4D4D-AB61-1755BF5454FC}"/>
+    <workbookView xWindow="36276" yWindow="4764" windowWidth="23040" windowHeight="11976" xr2:uid="{A973CA7D-4A48-4D4D-AB61-1755BF5454FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="10">
   <si>
     <t>lon_i</t>
   </si>
@@ -59,20 +59,20 @@
     <t>sud(-) / nord(+)</t>
   </si>
   <si>
+    <t>lat\lon</t>
+  </si>
+  <si>
     <t>0;10</t>
   </si>
   <si>
-    <t>lat\lon</t>
-  </si>
-  <si>
-    <t>0;0</t>
+    <t>10;10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,10 +117,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,10 +136,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB756D6F-D340-41D1-8C9F-00E629D45EAF}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -465,7 +467,7 @@
     <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -482,15 +484,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -499,368 +501,735 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <f>B2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>B4+$C$2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:I4" si="0">C4+$C$2</f>
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:I4" si="0">C4+$C$2</f>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4" si="1">I4+$C$2</f>
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4" si="2">J4+$C$2</f>
+        <v>6.5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4" si="3">K4+$C$2</f>
         <v>7</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4" si="4">L4+$C$2</f>
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4" si="5">M4+$C$2</f>
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4" si="6">N4+$C$2</f>
+        <v>8.5</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4" si="7">O4+$C$2</f>
         <v>9</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4" si="1">I4+$C$2</f>
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ref="K4" si="2">J4+$C$2</f>
-        <v>11</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4" si="3">K4+$C$2</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4" si="8">P4+$C$2</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <f>A2</f>
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <f>A5-$C$2</f>
+        <v>51.5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <f t="shared" ref="A7:A16" si="9">A6-$C$2</f>
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <f>A5-$C$2</f>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <f t="shared" si="9"/>
+        <v>49.5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <f t="shared" ref="A7:A12" si="4">A6-$C$2</f>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <f t="shared" si="9"/>
+        <v>48.5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <f t="shared" si="4"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <f t="shared" si="9"/>
+        <v>47.5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>7</v>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <f t="shared" si="9"/>
+        <v>46.5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:Q16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Logiciel/Vent.xlsx
+++ b/Logiciel/Vent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/847b627be5f97550/Arthur/Programmation/TIPE_Arthur_Lhoste/Logiciel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{6AB1F8BF-0BCE-45DB-A9FF-250C9FC49FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43A10BE-2A3F-41D1-9E38-57234B0FD689}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{6AB1F8BF-0BCE-45DB-A9FF-250C9FC49FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE6C15CF-AC02-413E-829A-FAC6217F81B3}"/>
   <bookViews>
-    <workbookView xWindow="36276" yWindow="4764" windowWidth="23040" windowHeight="11976" xr2:uid="{A973CA7D-4A48-4D4D-AB61-1755BF5454FC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A973CA7D-4A48-4D4D-AB61-1755BF5454FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
   <si>
     <t>lon_i</t>
   </si>
@@ -62,10 +62,10 @@
     <t>lat\lon</t>
   </si>
   <si>
-    <t>0;10</t>
+    <t>5;5</t>
   </si>
   <si>
-    <t>10;10</t>
+    <t>0;20</t>
   </si>
 </sst>
 </file>
@@ -115,12 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +137,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB756D6F-D340-41D1-8C9F-00E629D45EAF}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -486,13 +491,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>52</v>
+        <v>47.7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -507,73 +512,55 @@
       </c>
       <c r="B4" s="1">
         <f>B2</f>
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="C4" s="1">
         <f>B4+$C$2</f>
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:I4" si="0">C4+$C$2</f>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.3499999999999996</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.3999999999999995</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3.4499999999999993</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3.4999999999999991</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>3.5499999999999989</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4" si="1">I4+$C$2</f>
-        <v>6</v>
+        <v>3.5999999999999988</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4" si="2">J4+$C$2</f>
-        <v>6.5</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4" si="3">K4+$C$2</f>
-        <v>7</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4" si="4">L4+$C$2</f>
-        <v>7.5</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4" si="5">M4+$C$2</f>
-        <v>8</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" ref="O4" si="6">N4+$C$2</f>
-        <v>8.5</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" ref="P4" si="7">O4+$C$2</f>
-        <v>9</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4" si="8">P4+$C$2</f>
-        <v>9.5</v>
-      </c>
+        <v>3.6499999999999986</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f>A2</f>
-        <v>52</v>
+        <v>47.7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -585,49 +572,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f>A5-$C$2</f>
-        <v>51.5</v>
+        <v>47.650000000000006</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -639,49 +614,37 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:A16" si="9">A6-$C$2</f>
-        <v>51</v>
+        <f t="shared" ref="A7:A10" si="3">A6-$C$2</f>
+        <v>47.600000000000009</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -693,49 +656,37 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <f t="shared" si="9"/>
-        <v>50.5</v>
+        <f t="shared" si="3"/>
+        <v>47.550000000000011</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -747,49 +698,37 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <f t="shared" si="9"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>47.500000000000014</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -801,49 +740,37 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <f t="shared" si="9"/>
-        <v>49.5</v>
+        <f t="shared" si="3"/>
+        <v>47.450000000000017</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -855,49 +782,37 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <f t="shared" si="9"/>
-        <v>49</v>
+        <f>A10-$C$2</f>
+        <v>47.40000000000002</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -909,314 +824,130 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <f t="shared" si="9"/>
-        <v>48.5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <f t="shared" si="9"/>
-        <v>47.5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <f t="shared" si="9"/>
-        <v>46.5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
